--- a/我的家/装修/预算.xlsx
+++ b/我的家/装修/预算.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="723" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="其他" sheetId="8" r:id="rId9"/>
     <sheet name="主材" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="249">
   <si>
     <t>厨房地砖</t>
   </si>
@@ -203,9 +203,6 @@
     <t>根</t>
   </si>
   <si>
-    <t>墙面安固仕腻子</t>
-  </si>
-  <si>
     <t>墙纸安固仕腻子</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>入户门门套</t>
   </si>
   <si>
-    <t>洗漱间门套</t>
-  </si>
-  <si>
     <t>大阳台门套</t>
   </si>
   <si>
@@ -541,18 +535,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电路预售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>水路预售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>材料上楼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -798,17 +784,113 @@
   </si>
   <si>
     <t>设计费抵扣</t>
+  </si>
+  <si>
+    <t>墙漆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱间A面门套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路预收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水路预收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移配电箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水面积增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次防水前地面找平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间地面抬高100mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房B面过砖梁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱间上方吊顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱处顶面墙漆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活阳台铝扣板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱间D面门套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱间D面门套上方封板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤气表柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指甲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤气管包管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -816,13 +898,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -830,7 +912,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -855,13 +953,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,27 +1273,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2">
-        <f>地面!H33</f>
-        <v>6762.4</v>
+        <f>地面!H42</f>
+        <v>7732</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E1">
         <f>ROUND(门窗!H2+门窗!H3+门窗!H4,0)</f>
@@ -1202,14 +1303,14 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B2">
-        <f>墙面!H48</f>
-        <v>21769.999999999993</v>
+        <f>墙面!H53</f>
+        <v>20439.600000000002</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E2">
         <v>98639</v>
@@ -1217,14 +1318,14 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3">
-        <f>顶面!H29</f>
-        <v>12114.7</v>
+        <f>顶面!H35</f>
+        <v>12712.300000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <f>ROUND(E2*0.1,0)</f>
@@ -1233,23 +1334,23 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B4">
-        <f>门窗!H14</f>
-        <v>12331.099999999999</v>
+        <f>门窗!H16</f>
+        <v>12529.799999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5">
-        <f>家具!H52</f>
-        <v>27814.1</v>
+        <f>家具!H67</f>
+        <v>26823.599999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5">
         <f>SUM(E1:E3)</f>
@@ -1258,14 +1359,14 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <f>油漆!H9</f>
-        <v>11301.6</v>
+        <v>11193.800000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E6">
         <f>-4800*0.5</f>
@@ -1281,14 +1382,14 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B7">
-        <f>水电!H32</f>
-        <v>13948</v>
+        <f>水电!H33</f>
+        <v>14334</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E7">
         <f>主材!H44</f>
@@ -1297,7 +1398,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8">
         <f>其他!H12</f>
@@ -1306,7 +1407,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="D9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E9">
         <f>SUM(E5:E7)</f>
@@ -1318,11 +1419,11 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <f>ROUNDDOWN(SUM(B1:B8),0)</f>
-        <v>108136</v>
+        <v>107860</v>
       </c>
     </row>
   </sheetData>
@@ -1333,16 +1434,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1378,7 +1480,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1399,7 +1501,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1420,10 +1522,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1445,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1462,7 +1564,7 @@
         <v>128</v>
       </c>
       <c r="G8">
-        <f>ROUND(D8*(E8+F8),1)</f>
+        <f t="shared" ref="G8:G24" si="0">ROUND(D8*(E8+F8),1)</f>
         <v>752.6</v>
       </c>
       <c r="H8">
@@ -1471,10 +1573,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1483,7 +1585,7 @@
         <v>101</v>
       </c>
       <c r="G9">
-        <f>ROUND(D9*(E9+F9),1)</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="H9">
@@ -1493,10 +1595,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G10">
-        <f>ROUND(D10*(E10+F10),1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
@@ -1518,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="G11">
-        <f>ROUND(D11*(E11+F11),1)</f>
+        <f t="shared" si="0"/>
         <v>391</v>
       </c>
       <c r="H11">
@@ -1539,7 +1641,7 @@
         <v>72</v>
       </c>
       <c r="G12">
-        <f>ROUND(D12*(E12+F12),1)</f>
+        <f t="shared" si="0"/>
         <v>1484.6</v>
       </c>
       <c r="H12">
@@ -1560,7 +1662,7 @@
         <v>72</v>
       </c>
       <c r="G13">
-        <f>ROUND(D13*(E13+F13),1)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="H13">
@@ -1581,7 +1683,7 @@
         <v>72</v>
       </c>
       <c r="G14">
-        <f>ROUND(D14*(E14+F14),1)</f>
+        <f t="shared" si="0"/>
         <v>1159.9000000000001</v>
       </c>
       <c r="H14">
@@ -1603,7 +1705,7 @@
         <v>72</v>
       </c>
       <c r="G15">
-        <f>ROUND(D15*(E15+F15),1)</f>
+        <f t="shared" si="0"/>
         <v>104.4</v>
       </c>
       <c r="H15">
@@ -1624,7 +1726,7 @@
         <v>72</v>
       </c>
       <c r="G16">
-        <f>ROUND(D16*(E16+F16),1)</f>
+        <f t="shared" si="0"/>
         <v>780.5</v>
       </c>
       <c r="H16">
@@ -1645,7 +1747,7 @@
         <v>72</v>
       </c>
       <c r="G17">
-        <f>ROUND(D17*(E17+F17),1)</f>
+        <f t="shared" si="0"/>
         <v>179.3</v>
       </c>
       <c r="H17">
@@ -1666,7 +1768,7 @@
         <v>72</v>
       </c>
       <c r="G18">
-        <f>ROUND(D18*(E18+F18),1)</f>
+        <f t="shared" si="0"/>
         <v>992.2</v>
       </c>
       <c r="H18">
@@ -1675,10 +1777,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1687,7 +1789,7 @@
         <v>101</v>
       </c>
       <c r="G19">
-        <f>ROUND(D19*(E19+F19),1)</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="H19">
@@ -1697,7 +1799,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1709,7 +1811,7 @@
         <v>72</v>
       </c>
       <c r="G20">
-        <f>ROUND(D20*(E20+F20),1)</f>
+        <f t="shared" si="0"/>
         <v>147.6</v>
       </c>
       <c r="H20">
@@ -1730,7 +1832,7 @@
         <v>72</v>
       </c>
       <c r="G21">
-        <f>ROUND(D21*(E21+F21),1)</f>
+        <f t="shared" si="0"/>
         <v>751.7</v>
       </c>
       <c r="H21">
@@ -1751,7 +1853,7 @@
         <v>72</v>
       </c>
       <c r="G22">
-        <f>ROUND(D22*(E22+F22),1)</f>
+        <f t="shared" si="0"/>
         <v>236.9</v>
       </c>
       <c r="H22">
@@ -1760,7 +1862,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1772,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="G23">
-        <f>ROUND(D23*(E23+F23),1)</f>
+        <f t="shared" si="0"/>
         <v>131.19999999999999</v>
       </c>
       <c r="H23">
@@ -1781,10 +1883,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1793,7 +1895,7 @@
         <v>600</v>
       </c>
       <c r="G24">
-        <f>ROUND(D24*(E24+F24),1)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="H24">
@@ -1806,15 +1908,15 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1833,10 +1935,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1855,10 +1957,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1880,15 +1982,15 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1907,10 +2009,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1929,18 +2031,18 @@
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1962,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1970,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1983,6 +2085,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1990,17 +2093,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:H33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2071,11 +2174,11 @@
         <v>32.799999999999997</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G29" si="0">ROUND(D3*(E3+F3),1)</f>
+        <f t="shared" ref="G3:G38" si="0">ROUND(D3*(E3+F3),1)</f>
         <v>201.1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="1">G3</f>
+        <f t="shared" ref="H3:H38" si="1">G3</f>
         <v>201.1</v>
       </c>
     </row>
@@ -2364,143 +2467,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>9.75</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>5.5</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>25</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>297.39999999999998</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>297.39999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>7.31</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>40</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>409.4</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>409.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
         <v>5.46</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>40</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>305.8</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>305.8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E19">
-        <v>40</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>142.80000000000001</v>
-      </c>
-      <c r="H19">
-        <v>142.69999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>5.83</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>326.5</v>
-      </c>
-      <c r="H20">
-        <v>326.3</v>
-      </c>
-    </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>2.96</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E21">
         <v>40</v>
@@ -2510,236 +2565,356 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>165.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="H21">
-        <v>165.7</v>
+        <v>142.69999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
-        <v>4</v>
-      </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
+      <c r="D22">
+        <v>5.83</v>
+      </c>
       <c r="E22">
-        <v>18.8</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>326.5</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>326.3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
+      <c r="D23">
+        <v>2.96</v>
+      </c>
       <c r="E23">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>165.8</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>165.7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="D24">
-        <v>55.41</v>
+        <v>12.09</v>
       </c>
       <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="H24">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25">
+        <v>2.82</v>
+      </c>
+      <c r="E25">
         <v>21</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>16.8</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>2094.5</v>
-      </c>
-      <c r="H24">
-        <v>2094.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>0.94</v>
-      </c>
-      <c r="E25">
-        <v>350</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>106.6</v>
       </c>
       <c r="H25">
-        <v>421.2</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26">
+        <v>2.48</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="H26">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>18.8</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>55.41</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>16.8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2094.5</v>
+      </c>
+      <c r="H30">
+        <v>2094.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>0.94</v>
+      </c>
+      <c r="E32">
+        <v>350</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="H32">
+        <v>421.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>4.68</v>
       </c>
-      <c r="E26">
+      <c r="E33">
         <v>21</v>
       </c>
-      <c r="F26">
+      <c r="F33">
         <v>16.8</v>
       </c>
-      <c r="G26">
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>176.9</v>
       </c>
-      <c r="H26">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>176.9</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
         <v>28.5</v>
       </c>
-      <c r="F27">
+      <c r="F34">
         <v>20</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
+    <row r="36" spans="1:8">
+      <c r="A36">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>65.44</v>
       </c>
-      <c r="E28">
+      <c r="E36">
         <v>2.5</v>
       </c>
-      <c r="F28">
+      <c r="F36">
         <v>1.5</v>
       </c>
-      <c r="G28">
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>261.8</v>
       </c>
-      <c r="H28">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>261.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D29">
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F38">
         <v>320</v>
       </c>
-      <c r="G29">
+      <c r="G38">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H29">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>50.8</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="1" t="s">
+    <row r="42" spans="1:8">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1">
-        <f>SUM(G2:G30)</f>
-        <v>6765.0000000000009</v>
-      </c>
-      <c r="H33" s="1">
-        <f>SUM(H2:H32)</f>
-        <v>6762.4</v>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <f>SUM(G2:G39)</f>
+        <v>7734.6000000000013</v>
+      </c>
+      <c r="H42" s="1">
+        <f>SUM(H2:H41)</f>
+        <v>7732</v>
       </c>
     </row>
   </sheetData>
@@ -2752,16 +2927,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:H48"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2798,7 +2973,8 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>19.100000000000001</v>
+        <f>19.1-0.88</f>
+        <v>18.220000000000002</v>
       </c>
       <c r="E2">
         <v>15.8</v>
@@ -2807,11 +2983,12 @@
         <v>34.799999999999997</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G18" si="0">ROUND(D2*(E2+F2),1)</f>
-        <v>966.5</v>
+        <f t="shared" ref="G2:G19" si="0">ROUND(D2*(E2+F2),1)</f>
+        <v>921.9</v>
       </c>
       <c r="H2">
-        <v>966.3</v>
+        <f>966.3-44.6</f>
+        <v>921.69999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2847,7 +3024,8 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>14.92</v>
+        <f>14.92-8.86</f>
+        <v>6.0600000000000005</v>
       </c>
       <c r="E4">
         <v>15.8</v>
@@ -2857,10 +3035,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>755</v>
+        <v>306.60000000000002</v>
       </c>
       <c r="H4">
-        <v>754.8</v>
+        <f>754.8-448.3</f>
+        <v>306.49999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2920,7 +3099,8 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>9.67</v>
+        <f>9.67-2.82</f>
+        <v>6.85</v>
       </c>
       <c r="E7">
         <v>15.8</v>
@@ -2930,10 +3110,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>489.3</v>
+        <v>346.6</v>
       </c>
       <c r="H7">
-        <v>489.2</v>
+        <f>489.2-142.9</f>
+        <v>346.29999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3059,7 +3240,8 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>66.48</v>
+        <f>66.48-11.68</f>
+        <v>54.800000000000004</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3069,11 +3251,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>531.79999999999995</v>
+        <v>438.4</v>
       </c>
       <c r="H13">
-        <f>G13</f>
-        <v>531.79999999999995</v>
+        <f>531.8-93.5</f>
+        <v>438.29999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3098,732 +3280,771 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>139.63</v>
-      </c>
-      <c r="E15">
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f>139.63-2+7.49</f>
+        <v>145.12</v>
+      </c>
+      <c r="E16">
         <v>20.399999999999999</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>20.399999999999999</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>5696.9</v>
-      </c>
-      <c r="H15">
-        <v>5697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>14.3</v>
-      </c>
-      <c r="F16">
-        <v>18.5</v>
-      </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5920.9</v>
       </c>
       <c r="H16">
-        <f>G16</f>
-        <v>0</v>
+        <f>5697-108.9+305.7</f>
+        <v>5893.8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17">
-        <v>139.63</v>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>14.3</v>
       </c>
       <c r="F17">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1061.2</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f>G17</f>
-        <v>1061.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="E18">
-        <v>0.5</v>
+      <c r="D18">
+        <f>139.63-2+7.49</f>
+        <v>145.12</v>
       </c>
       <c r="F18">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1102.9000000000001</v>
       </c>
       <c r="H18">
         <f>G18</f>
-        <v>0</v>
+        <v>1102.9000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>11.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5.12</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G33" si="1">ROUND(D22*(E22+F22),1)</f>
+        <v>240.6</v>
+      </c>
+      <c r="H22">
+        <v>240.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>5.12</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>42</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G31" si="1">ROUND(D20*(E20+F20),1)</f>
-        <v>240.6</v>
-      </c>
-      <c r="H20">
-        <v>240.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>4.92</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>98.4</v>
       </c>
-      <c r="H21">
-        <f>G21</f>
+      <c r="H23">
+        <f>G23</f>
         <v>98.4</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>4.45</v>
-      </c>
-      <c r="E22">
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>4.45+3.85</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>42</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>209.2</v>
-      </c>
-      <c r="H22">
-        <v>209.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23">
+        <v>390.1</v>
+      </c>
+      <c r="H24">
+        <f>209.4+181.1</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>5.12</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>102.4</v>
       </c>
-      <c r="H23">
-        <f>G23</f>
+      <c r="H25">
+        <f>G25</f>
         <v>102.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>2.77</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>5</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>42</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>130.19999999999999</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <v>130.4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>5.52</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>10</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>110.4</v>
       </c>
-      <c r="H25">
-        <f>G25</f>
+      <c r="H27">
+        <f>G27</f>
         <v>110.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>3.42</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>42</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>160.69999999999999</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>160.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27">
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>5.12</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>10</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>102.4</v>
       </c>
-      <c r="H27">
-        <f>G27</f>
+      <c r="H29">
+        <f>G29</f>
         <v>102.4</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
         <v>3.15</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>42</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>148.1</v>
       </c>
-      <c r="H28">
-        <f>G28</f>
+      <c r="H30">
+        <f>G30</f>
         <v>148.1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
         <v>4.5</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H29">
-        <f>G29</f>
+      <c r="H31">
+        <f>G31</f>
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>79.16</v>
-      </c>
-      <c r="F30">
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <f>79.16-24.23</f>
+        <v>54.929999999999993</v>
+      </c>
+      <c r="F32">
         <v>18</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <f t="shared" si="1"/>
-        <v>1424.9</v>
-      </c>
-      <c r="H30">
-        <v>1424.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>79.16</v>
-      </c>
-      <c r="E31">
-        <v>20.5</v>
-      </c>
-      <c r="F31">
-        <v>19</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>3126.8</v>
-      </c>
-      <c r="H31">
-        <v>3126.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
+        <v>988.7</v>
+      </c>
+      <c r="H32">
+        <f>1424.8-436.2</f>
+        <v>988.59999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f>79.16-24.23</f>
+        <v>54.929999999999993</v>
+      </c>
+      <c r="E33">
+        <v>20.5</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>2169.6999999999998</v>
+      </c>
+      <c r="H33">
+        <f>3126.7-957.1</f>
+        <v>2169.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5.43</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G50" si="2">ROUND(D36*(E36+F36),1)</f>
+        <v>651.6</v>
+      </c>
+      <c r="H36">
+        <f>G36</f>
+        <v>651.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>5.43</v>
-      </c>
-      <c r="E33">
-        <v>80</v>
-      </c>
-      <c r="F33">
-        <v>40</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G45" si="2">ROUND(D33*(E33+F33),1)</f>
-        <v>651.6</v>
-      </c>
-      <c r="H33">
-        <f>G33</f>
-        <v>651.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
         <v>10.86</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>11.5</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>13</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <f t="shared" si="2"/>
         <v>266.10000000000002</v>
       </c>
-      <c r="H34">
-        <f>G34</f>
+      <c r="H37">
+        <f>G37</f>
         <v>266.10000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f>8.71+3.4</f>
+        <v>12.110000000000001</v>
+      </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1453.2</v>
+      </c>
+      <c r="H38">
+        <f>1045.1+407.8</f>
+        <v>1452.8999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="E35">
-        <v>80</v>
-      </c>
-      <c r="F35">
-        <v>40</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>1045.2</v>
-      </c>
-      <c r="H35">
-        <v>1045.0999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>65</v>
       </c>
-      <c r="F36">
+      <c r="F39">
         <v>60</v>
       </c>
-      <c r="G36">
+      <c r="G39">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="H36">
-        <f>G36</f>
+      <c r="H39">
+        <f>G39</f>
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="E37">
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <f>17.42+6.8</f>
+        <v>24.220000000000002</v>
+      </c>
+      <c r="E40">
         <v>11.5</v>
       </c>
-      <c r="F37">
+      <c r="F40">
         <v>13</v>
       </c>
-      <c r="G37">
+      <c r="G40">
         <f t="shared" si="2"/>
-        <v>426.8</v>
-      </c>
-      <c r="H37">
-        <f>G37</f>
-        <v>426.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38">
+        <v>593.4</v>
+      </c>
+      <c r="H40">
+        <f>G40</f>
+        <v>593.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>35</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>31</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <f t="shared" si="2"/>
         <v>287.8</v>
       </c>
-      <c r="H38">
+      <c r="H41">
         <v>287.89999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>65</v>
       </c>
-      <c r="F39">
+      <c r="F42">
         <v>60</v>
       </c>
-      <c r="G39">
+      <c r="G42">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="H39">
-        <f>G39</f>
+      <c r="H42">
+        <f>G42</f>
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40">
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
         <v>8.7200000000000006</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>11.5</v>
       </c>
-      <c r="F40">
+      <c r="F43">
         <v>13</v>
       </c>
-      <c r="G40">
+      <c r="G43">
         <f t="shared" si="2"/>
         <v>213.6</v>
       </c>
-      <c r="H40">
+      <c r="H43">
         <v>213.7</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
+    <row r="44" spans="1:8">
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3">
+        <f>1-1</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>60</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <f>131.2-131.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3">
+        <f>1-1</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>122</v>
+      </c>
+      <c r="F45" s="3">
+        <v>80</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f>202-202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3">
+        <f>1.78-1.78</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f>43.6-43.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47">
+        <v>180</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>G47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48">
+        <v>1.4</v>
+      </c>
+      <c r="E48">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41">
+      <c r="F48">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="H48">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>71.2</v>
-      </c>
-      <c r="F41">
-        <v>60</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>131.19999999999999</v>
-      </c>
-      <c r="H41">
-        <f>G41</f>
-        <v>131.19999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>122</v>
-      </c>
-      <c r="F42">
-        <v>80</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="H42">
-        <f>G42</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>1.78</v>
-      </c>
-      <c r="E43">
-        <v>11.5</v>
-      </c>
-      <c r="F43">
-        <v>13</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>43.6</v>
-      </c>
-      <c r="H43">
-        <f>G43</f>
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>180</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f>G44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="F45">
+      <c r="F50">
         <v>360</v>
       </c>
-      <c r="G45">
+      <c r="G50">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="H45">
-        <f>G45</f>
+      <c r="H50">
+        <f>G50</f>
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
         <v>40</v>
       </c>
-      <c r="H48">
-        <f>SUM(H2:H47)</f>
-        <v>21769.999999999993</v>
+      <c r="H53">
+        <f>SUM(H2:H52)</f>
+        <v>20439.600000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3835,16 +4056,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3875,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -3890,7 +4111,7 @@
         <v>45</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G26" si="0">ROUND(D2*(E2+F2),1)</f>
+        <f t="shared" ref="G2:G32" si="0">ROUND(D2*(E2+F2),1)</f>
         <v>461.1</v>
       </c>
       <c r="H2">
@@ -3899,7 +4120,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -3924,7 +4145,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -3949,7 +4170,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3973,7 +4194,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -3998,13 +4219,14 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>18.21</v>
+        <f>18.21+14.77</f>
+        <v>32.980000000000004</v>
       </c>
       <c r="E7">
         <v>16.8</v>
@@ -4014,16 +4236,16 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>433.4</v>
+        <v>784.9</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>433.4</v>
+        <f>433.4+351.5</f>
+        <v>784.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -4048,7 +4270,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4073,7 +4295,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4098,7 +4320,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4123,7 +4345,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -4148,7 +4370,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4173,7 +4395,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -4198,7 +4420,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -4223,7 +4445,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -4246,245 +4468,318 @@
         <v>240.8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
         <v>5.43</v>
-      </c>
-      <c r="E17">
-        <v>158</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>857.9</v>
-      </c>
-      <c r="H17">
-        <v>858.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>3.82</v>
       </c>
       <c r="E18">
         <v>158</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>603.6</v>
+        <v>857.9</v>
       </c>
       <c r="H18">
-        <v>604.1</v>
+        <v>858.3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>1.45</v>
+        <f>3.82-2.39</f>
+        <v>1.4299999999999997</v>
       </c>
       <c r="E19">
         <v>158</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>229.1</v>
+        <v>225.9</v>
       </c>
       <c r="H19">
-        <v>228.7</v>
+        <f>604.1-377.1</f>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>2.4900000000000002</v>
+        <v>1.45</v>
       </c>
       <c r="E20">
         <v>158</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>393.4</v>
+        <v>229.1</v>
       </c>
       <c r="H20">
-        <v>394.2</v>
+        <v>228.7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E21">
+        <v>158</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>393.4</v>
+      </c>
+      <c r="H21">
+        <v>394.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>32</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>19</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>12.87</v>
-      </c>
-      <c r="E22">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F22">
-        <v>17.899999999999999</v>
-      </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>447.9</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="D23">
-        <v>51.02</v>
+        <v>2.25</v>
       </c>
       <c r="E23">
-        <v>24.7</v>
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>29.9</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>2785.7</v>
+        <v>238.5</v>
       </c>
       <c r="H23">
-        <f>G23</f>
-        <v>2785.7</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="D24">
-        <v>63.89</v>
+        <v>2.36</v>
       </c>
       <c r="E24">
-        <v>2.5</v>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F24">
+        <v>20.399999999999999</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>159.69999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H24">
-        <f>G24</f>
-        <v>159.69999999999999</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="D25">
-        <v>63.89</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
-      </c>
-      <c r="F25">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>990.3</v>
+        <v>323.89999999999998</v>
       </c>
       <c r="H25">
-        <f>G25</f>
-        <v>990.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>360</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="H26">
-        <f>G26</f>
-        <v>360</v>
+        <v>324.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>12.87</v>
+      </c>
+      <c r="E27">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F27">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>447.9</v>
+      </c>
+      <c r="H27">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>51.02</v>
+      </c>
+      <c r="E28">
+        <v>24.7</v>
+      </c>
+      <c r="F28">
+        <v>29.9</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2785.7</v>
+      </c>
+      <c r="H28">
+        <f>G28</f>
+        <v>2785.7</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>63.89-2</f>
+        <v>61.89</v>
+      </c>
+      <c r="E29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="H29">
+        <f>159.7-5</f>
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <f>63.89-2</f>
+        <v>61.89</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>959.3</v>
+      </c>
+      <c r="H30">
+        <f>990.3-30.9</f>
+        <v>959.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>360</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H32">
+        <f>G32</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="H29">
-        <f>SUM(H2:H27)</f>
-        <v>12114.7</v>
+      <c r="H35">
+        <f>SUM(H2:H33)</f>
+        <v>12712.300000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4496,16 +4791,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4536,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -4548,7 +4843,7 @@
         <v>1808</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G9" si="0">ROUND(D2*(E2+F2),1)</f>
+        <f t="shared" ref="G2:G11" si="0">ROUND(D2*(E2+F2),1)</f>
         <v>5424</v>
       </c>
       <c r="H2">
@@ -4558,7 +4853,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -4580,7 +4875,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -4602,7 +4897,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -4626,7 +4921,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -4651,7 +4946,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -4676,13 +4971,14 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8">
-        <v>4.9800000000000004</v>
+        <f>4.98-4.98</f>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>74</v>
@@ -4692,60 +4988,108 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>527.9</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>G8</f>
-        <v>527.9</v>
+        <f>527.9-527.9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="D9">
-        <v>6.81</v>
+        <v>5.46</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>933</v>
+        <f t="shared" ref="G9:G10" si="1">ROUND(D9*(E9+F9),1)</f>
+        <v>578.79999999999995</v>
       </c>
       <c r="H9">
-        <f>G9</f>
-        <v>933</v>
+        <v>578.79999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>79.8</v>
+      </c>
+      <c r="F10">
+        <v>68</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>147.80000000000001</v>
+      </c>
+      <c r="H10">
+        <v>147.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>6.81</v>
+      </c>
+      <c r="E11">
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>933</v>
+      </c>
+      <c r="H11">
+        <f>G11</f>
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="H14">
-        <f>SUM(H2:H13)</f>
-        <v>12331.099999999999</v>
+      <c r="H16">
+        <f>SUM(H2:H15)</f>
+        <v>12529.799999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4757,16 +5101,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4797,12 +5141,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -4827,10 +5171,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4849,7 +5193,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4874,7 +5218,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -4899,7 +5243,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -4924,7 +5268,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -4949,7 +5293,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4973,7 +5317,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -4998,7 +5342,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5022,7 +5366,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5045,379 +5389,323 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>680</v>
-      </c>
-      <c r="F14">
-        <v>191</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G17" si="2">ROUND(D14*(E14+F14),1)</f>
-        <v>1742</v>
-      </c>
-      <c r="H14">
-        <v>1740.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>680</v>
+      </c>
+      <c r="F15">
+        <v>191</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="2">ROUND(D15*(E15+F15),1)</f>
+        <v>1742</v>
+      </c>
+      <c r="H15">
+        <v>1740.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16">
         <v>10.5</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="H15">
-        <f>G15</f>
+      <c r="H16">
+        <f>G16</f>
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16">
+      <c r="D17">
         <v>3.35</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>690</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>163</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>2857.6</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>2859.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17">
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>219</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>130</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>1047</v>
       </c>
-      <c r="H17">
-        <f>G17</f>
+      <c r="H18">
+        <f>G18</f>
         <v>1047</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21">
+        <v>4.5</v>
+      </c>
+      <c r="E21">
+        <v>568</v>
+      </c>
+      <c r="F21">
+        <v>191</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G24" si="3">ROUND(D21*(E21+F21),1)</f>
+        <v>3415.5</v>
+      </c>
+      <c r="H21">
+        <v>3413.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19">
-        <v>4.5</v>
-      </c>
-      <c r="E19">
-        <v>568</v>
-      </c>
-      <c r="F19">
-        <v>191</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G22" si="3">ROUND(D19*(E19+F19),1)</f>
-        <v>3415.5</v>
-      </c>
-      <c r="H19">
-        <v>3413.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20">
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22">
         <v>22.58</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <f t="shared" si="3"/>
         <v>451.6</v>
       </c>
-      <c r="H20">
-        <f>G20</f>
+      <c r="H22">
+        <f>G22</f>
         <v>451.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="B21" t="s">
+    <row r="23" spans="1:8">
+      <c r="B23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>128</v>
       </c>
-      <c r="G21">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>256</v>
-      </c>
-      <c r="H21">
-        <f>G21</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24">
         <v>2.31</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>20</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>22</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="H22">
-        <f>G22</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24">
-        <v>1.26</v>
-      </c>
-      <c r="E24">
-        <v>616</v>
-      </c>
-      <c r="F24">
-        <v>191</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G28" si="4">ROUND(D24*(E24+F24),1)</f>
-        <v>1016.8</v>
-      </c>
       <c r="H24">
         <f>G24</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27">
+        <v>1.26</v>
+      </c>
+      <c r="E27">
+        <v>616</v>
+      </c>
+      <c r="F27">
+        <v>191</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G31" si="4">ROUND(D27*(E27+F27),1)</f>
         <v>1016.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
+      <c r="H27">
+        <f>G27</f>
+        <v>1016.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28">
         <v>5.82</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <f t="shared" si="4"/>
         <v>116.4</v>
       </c>
-      <c r="H25">
-        <f>G25</f>
+      <c r="H28">
+        <f>G28</f>
         <v>116.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26">
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29">
         <v>1.82</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>598</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <v>163</v>
       </c>
-      <c r="G26">
+      <c r="G29">
         <f t="shared" si="4"/>
         <v>1385</v>
       </c>
-      <c r="H26">
-        <f>G26</f>
+      <c r="H29">
+        <f>G29</f>
         <v>1385</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27">
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
         <v>3.08</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>127</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <v>45</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <f t="shared" si="4"/>
         <v>529.79999999999995</v>
       </c>
-      <c r="H27">
-        <f>G27</f>
+      <c r="H30">
+        <f>G30</f>
         <v>529.79999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28">
-        <v>1.4</v>
-      </c>
-      <c r="E28">
-        <v>28</v>
-      </c>
-      <c r="F28">
-        <v>24</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>72.8</v>
-      </c>
-      <c r="H28">
-        <f>G28</f>
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30">
-        <v>2.42</v>
-      </c>
-      <c r="E30">
-        <v>568</v>
-      </c>
-      <c r="F30">
-        <v>191</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G33" si="5">ROUND(D30*(E30+F30),1)</f>
-        <v>1836.8</v>
-      </c>
-      <c r="H30">
-        <v>1836.5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5425,364 +5713,497 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>1.4</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>72.8</v>
+      </c>
+      <c r="H31">
+        <f>G31</f>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="D31">
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34">
+        <v>2.42</v>
+      </c>
+      <c r="E34">
+        <v>568</v>
+      </c>
+      <c r="F34">
+        <v>191</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G37" si="5">ROUND(D34*(E34+F34),1)</f>
+        <v>1836.8</v>
+      </c>
+      <c r="H34">
+        <v>1836.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35">
         <v>11.24</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="G31">
+      <c r="G35">
         <f t="shared" si="5"/>
         <v>224.8</v>
       </c>
-      <c r="H31">
-        <f>G31</f>
+      <c r="H35">
+        <f>G35</f>
         <v>224.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
+    <row r="36" spans="1:8">
+      <c r="B36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
         <v>128</v>
       </c>
-      <c r="G32">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
         <f t="shared" si="5"/>
-        <v>256</v>
-      </c>
-      <c r="H32">
-        <f>G32</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <f>G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37">
         <v>1.52</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>20</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>22</v>
       </c>
-      <c r="G33">
+      <c r="G37">
         <f t="shared" si="5"/>
         <v>63.8</v>
       </c>
-      <c r="H33">
-        <f>G33</f>
+      <c r="H37">
+        <f>G37</f>
         <v>63.8</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>547</v>
+      </c>
+      <c r="F40" s="4">
+        <v>273</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" ref="G40:G41" si="6">ROUND(D40*(E40+F40),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
+      <c r="C41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>77</v>
+      </c>
+      <c r="F41" s="4">
+        <v>32</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f>G41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
         <v>140</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="D35">
-        <v>0.9</v>
-      </c>
-      <c r="E35">
-        <v>547</v>
-      </c>
-      <c r="F35">
-        <v>273</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G36" si="6">ROUND(D35*(E35+F35),1)</f>
-        <v>738</v>
-      </c>
-      <c r="H35">
-        <f>G35</f>
-        <v>738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36">
-        <v>3.04</v>
-      </c>
-      <c r="E36">
-        <v>77</v>
-      </c>
-      <c r="F36">
-        <v>32</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
-        <v>331.4</v>
-      </c>
-      <c r="H36">
-        <f>G36</f>
-        <v>331.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38">
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44">
         <v>4.97</v>
       </c>
-      <c r="E38">
+      <c r="E44">
         <v>568</v>
       </c>
-      <c r="F38">
+      <c r="F44">
         <v>191</v>
       </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G41" si="7">ROUND(D38*(E38+F38),1)</f>
+      <c r="G44">
+        <f t="shared" ref="G44:G47" si="7">ROUND(D44*(E44+F44),1)</f>
         <v>3772.2</v>
       </c>
-      <c r="H38">
+      <c r="H44">
         <v>3772.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39">
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45">
         <v>23.32</v>
       </c>
-      <c r="E39">
+      <c r="E45">
         <v>10</v>
       </c>
-      <c r="F39">
+      <c r="F45">
         <v>10</v>
       </c>
-      <c r="G39">
+      <c r="G45">
         <f t="shared" si="7"/>
         <v>466.4</v>
       </c>
-      <c r="H39">
-        <f>G39</f>
+      <c r="H45">
+        <f>G45</f>
         <v>466.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
         <v>131</v>
       </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>128</v>
       </c>
-      <c r="G40">
+      <c r="G46">
         <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="H40">
-        <f>G40</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47">
         <v>1.89</v>
       </c>
-      <c r="E41">
+      <c r="E47">
         <v>20</v>
       </c>
-      <c r="F41">
+      <c r="F47">
         <v>22</v>
       </c>
-      <c r="G41">
+      <c r="G47">
         <f t="shared" si="7"/>
         <v>79.400000000000006</v>
       </c>
-      <c r="H41">
-        <f>G41</f>
+      <c r="H47">
+        <f>G47</f>
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43">
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50">
         <v>1.75</v>
       </c>
-      <c r="E43">
+      <c r="E50">
         <v>504</v>
       </c>
-      <c r="F43">
+      <c r="F50">
         <v>191</v>
       </c>
-      <c r="G43">
-        <f t="shared" ref="G43:G45" si="8">ROUND(D43*(E43+F43),1)</f>
+      <c r="G50">
+        <f t="shared" ref="G50:G52" si="8">ROUND(D50*(E50+F50),1)</f>
         <v>1216.3</v>
       </c>
-      <c r="H43">
+      <c r="H50">
         <v>1214.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44">
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51">
         <v>7.98</v>
       </c>
-      <c r="E44">
+      <c r="E51">
         <v>10</v>
       </c>
-      <c r="F44">
+      <c r="F51">
         <v>10</v>
       </c>
-      <c r="G44">
+      <c r="G51">
         <f t="shared" si="8"/>
         <v>159.6</v>
       </c>
-      <c r="H44">
-        <f>G44</f>
+      <c r="H51">
+        <f>G51</f>
         <v>159.6</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45">
+    <row r="52" spans="1:8">
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52">
         <v>1.08</v>
       </c>
-      <c r="E45">
+      <c r="E52">
         <v>20</v>
       </c>
-      <c r="F45">
+      <c r="F52">
         <v>22</v>
       </c>
-      <c r="G45">
+      <c r="G52">
         <f t="shared" si="8"/>
         <v>45.4</v>
       </c>
-      <c r="H45">
+      <c r="H52">
         <v>45.2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+    <row r="54" spans="1:8">
+      <c r="A54">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" t="s">
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
         <v>146</v>
       </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59">
+        <v>0.96</v>
+      </c>
+      <c r="E59">
+        <v>467</v>
+      </c>
+      <c r="F59">
+        <v>148</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59:G61" si="9">ROUND(D59*(E59+F59),1)</f>
+        <v>590.4</v>
+      </c>
+      <c r="H59">
+        <v>590.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="9"/>
+        <v>46.4</v>
+      </c>
+      <c r="H60">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61">
+        <v>1.91</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>35</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="9"/>
+        <v>210.1</v>
+      </c>
+      <c r="H61">
+        <v>210.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52">
-        <f>SUM(H2:H51)</f>
-        <v>27814.1</v>
+      <c r="H67">
+        <f>SUM(H2:H66)</f>
+        <v>26823.599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5794,16 +6215,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -5831,101 +6253,108 @@
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>20.260000000000002</v>
+        <f>20.26+0.38</f>
+        <v>20.64</v>
       </c>
       <c r="E2">
         <v>30.5</v>
       </c>
       <c r="G2">
         <f>ROUND(D2*(E2+F2),1)</f>
-        <v>617.9</v>
+        <v>629.5</v>
       </c>
       <c r="H2">
         <f>G2</f>
-        <v>617.9</v>
+        <v>629.5</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>66.95</v>
+        <f>66.95-1.59+3.07</f>
+        <v>68.429999999999993</v>
       </c>
       <c r="E3">
         <v>142</v>
       </c>
       <c r="G3">
         <f>ROUND(D3*(E3+F3),1)</f>
-        <v>9506.9</v>
+        <v>9717.1</v>
       </c>
       <c r="H3">
-        <v>9506.7999999999993</v>
+        <f>9506.8-616.4+435.7</f>
+        <v>9326.1</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5">
-        <v>40.58</v>
+        <f>40.58-1.59+2.32</f>
+        <v>41.309999999999995</v>
       </c>
       <c r="E5">
         <v>16</v>
       </c>
       <c r="G5">
         <f>ROUND(D5*(E5+F5),1)</f>
-        <v>649.29999999999995</v>
+        <v>661</v>
       </c>
       <c r="H5">
-        <v>649.20000000000005</v>
+        <f>649.2-25.4+37.2</f>
+        <v>661.00000000000011</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6">
-        <v>23.99</v>
+        <f>23.99+2.25</f>
+        <v>26.24</v>
       </c>
       <c r="E6">
         <v>22</v>
       </c>
       <c r="G6">
         <f>ROUND(D6*(E6+F6),1)</f>
-        <v>527.79999999999995</v>
+        <v>577.29999999999995</v>
       </c>
       <c r="H6">
-        <v>527.70000000000005</v>
+        <f>527.7+49.5</f>
+        <v>577.20000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H7)</f>
-        <v>11301.6</v>
+        <v>11193.800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5936,16 +6365,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5973,76 +6403,70 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>8500</v>
-      </c>
       <c r="G2">
-        <f>ROUND(D2*(E2+F2),1)</f>
-        <v>8500</v>
+        <f>SUM(H8:H19)</f>
+        <v>9237.2999999999993</v>
       </c>
       <c r="H2">
         <f>G2</f>
-        <v>8500</v>
+        <v>9237.2999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>4000</v>
-      </c>
       <c r="G3">
-        <f>ROUND(D3*(E3+F3),1)</f>
-        <v>4000</v>
+        <f>SUM(G22:G31)</f>
+        <v>4176.7</v>
       </c>
       <c r="H3">
         <f>G3</f>
-        <v>4000</v>
+        <v>4176.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="G4">
         <f>ROUND(D4*(E4+F4),1)</f>
-        <v>720</v>
+        <v>192</v>
       </c>
       <c r="H4">
         <f>G4</f>
-        <v>720</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5">
         <v>3.5</v>
@@ -6067,53 +6491,59 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
       </c>
       <c r="E8">
         <v>66</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G18" si="0">ROUND(D8*(E8+F8),1)</f>
-        <v>0</v>
+        <f t="shared" ref="G8:G19" si="0">ROUND(D8*(E8+F8),1)</f>
+        <v>2310</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H18" si="1">G8</f>
-        <v>0</v>
+        <f t="shared" ref="H8:H19" si="1">G8</f>
+        <v>2310</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
       </c>
       <c r="E9">
         <v>74</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2812</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -6129,29 +6559,32 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>18.98</v>
       </c>
       <c r="E11">
         <v>39</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>740.2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>740.2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>49.5</v>
@@ -6167,67 +6600,76 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>26.23</v>
       </c>
       <c r="E13">
         <v>18</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>472.1</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>472.1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
         <v>188</v>
       </c>
-      <c r="C14" t="s">
-        <v>192</v>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="E14">
         <v>148</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>139</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6243,10 +6685,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17">
         <v>2.5</v>
@@ -6262,209 +6704,271 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>230</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="2">ROUND(D18*(E18+F18),1)</f>
+        <v>120</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="3">G18</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
         <v>22</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21">
-        <v>52</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G29" si="2">ROUND(D21*(E21+F21),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H29" si="3">G21</f>
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G22:G30" si="4">ROUND(D22*(E22+F22),1)</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H22:H30" si="5">G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D23">
+        <v>35.299999999999997</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2188.6</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2188.6</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <v>4.3</v>
       </c>
       <c r="E24">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>387</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D25">
+        <v>6.9</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>724.5</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>724.5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>3.83</v>
       </c>
       <c r="E26">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>459.6</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>459.6</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E28">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
+        <v>225</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30">
         <v>80</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32">
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>48</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="6">ROUND(D31*(E31+F31),1)</f>
+        <v>192</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="7">G31</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33">
         <f>SUM(H2:H7)</f>
-        <v>13948</v>
+        <v>14334</v>
       </c>
     </row>
   </sheetData>
@@ -6475,16 +6979,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -6512,10 +7017,10 @@
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2">
         <v>96546</v>
@@ -6535,10 +7040,10 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6555,10 +7060,10 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6566,10 +7071,10 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>79.56</v>
@@ -6588,10 +7093,10 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -6607,10 +7112,10 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>96546</v>
@@ -6629,10 +7134,10 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>18.899999999999999</v>
@@ -6651,10 +7156,10 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9">
         <v>96546</v>
@@ -6673,7 +7178,7 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H12">
         <f>SUM(H2:H11)</f>
